--- a/ResultadoEleicoesDistritos/SANTARÉM_CONSTÂNCIA.xlsx
+++ b/ResultadoEleicoesDistritos/SANTARÉM_CONSTÂNCIA.xlsx
@@ -597,61 +597,61 @@
         <v>1008</v>
       </c>
       <c r="H2" t="n">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="I2" t="n">
-        <v>108</v>
+        <v>92</v>
       </c>
       <c r="J2" t="n">
-        <v>391</v>
+        <v>401</v>
       </c>
       <c r="K2" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="L2" t="n">
-        <v>124</v>
+        <v>135</v>
       </c>
       <c r="M2" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="N2" t="n">
-        <v>55</v>
+        <v>63</v>
       </c>
       <c r="O2" t="n">
         <v>0</v>
       </c>
       <c r="P2" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>1</v>
+      </c>
+      <c r="R2" t="n">
+        <v>7</v>
+      </c>
+      <c r="S2" t="n">
+        <v>44</v>
+      </c>
+      <c r="T2" t="n">
+        <v>73</v>
+      </c>
+      <c r="U2" t="n">
         <v>4</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="V2" t="n">
+        <v>669</v>
+      </c>
+      <c r="W2" t="n">
         <v>0</v>
       </c>
-      <c r="R2" t="n">
-        <v>9</v>
-      </c>
-      <c r="S2" t="n">
-        <v>40</v>
-      </c>
-      <c r="T2" t="n">
-        <v>90</v>
-      </c>
-      <c r="U2" t="n">
+      <c r="X2" t="n">
+        <v>628</v>
+      </c>
+      <c r="Y2" t="n">
         <v>3</v>
       </c>
-      <c r="V2" t="n">
-        <v>673</v>
-      </c>
-      <c r="W2" t="n">
-        <v>2</v>
-      </c>
-      <c r="X2" t="n">
-        <v>618</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
-      </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA2" t="n">
         <v>4</v>
